--- a/ui/享运需求进度20161102.xlsx
+++ b/ui/享运需求进度20161102.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>app端需求：</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>需要一个录入司机、电话、车辆信息 车型，路线，备注的入口和目前已在平台注册的司机做个筛选 筛出未注册司机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -662,7 +666,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -853,8 +857,8 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="13">
-        <v>0.5</v>
+      <c r="B24" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75">

--- a/ui/享运需求进度20161102.xlsx
+++ b/ui/享运需求进度20161102.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>app端需求：</t>
   </si>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>完</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态，已完成改 确认送达</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -665,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -741,14 +745,17 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>0.5</v>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -757,8 +764,8 @@
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>0.5</v>
+      <c r="B11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
@@ -797,6 +804,9 @@
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="15">
         <v>1</v>
       </c>
@@ -805,20 +815,26 @@
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" ht="18.75">
       <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="18.75">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
@@ -841,6 +857,9 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -849,6 +868,9 @@
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
       <c r="D23">
         <v>0.5</v>
       </c>
@@ -877,6 +899,9 @@
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
       <c r="D27">
         <v>0.5</v>
       </c>
@@ -896,12 +921,18 @@
     </row>
     <row r="30" spans="1:4" ht="18.75">
       <c r="A30" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75">
       <c r="A31" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75">
